--- a/Week-2/8_April/ActiveEmployeeData.xlsx
+++ b/Week-2/8_April/ActiveEmployeeData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sachidanand\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Devanshu Chauhan\Desktop\Devanshu-python\Week-2\8_April\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF69C407-DFAB-4EC1-967D-DF5B7B934364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12504"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,10 +18,21 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -635,7 +647,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -761,7 +773,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -773,7 +785,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -783,7 +795,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -799,7 +811,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2330,25 +2342,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="22.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2371,7 +2383,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2395,7 +2407,7 @@
         <v>pragna.pandya@xduce.com</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -2419,7 +2431,7 @@
         <v>Techsupport@xduce.com</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -2443,7 +2455,7 @@
         <v>Sanjay.Rajpurohit@xduce.com</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -2467,7 +2479,7 @@
         <v>Jalpan.Joshi@xduce.com</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -2491,7 +2503,7 @@
         <v>Bipin.Sagathiya@xduce.com</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -2515,7 +2527,7 @@
         <v>Tejas.Patel@xduce.com</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -2539,7 +2551,7 @@
         <v>Amit.Pavar@xduce.com</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -2563,7 +2575,7 @@
         <v>Kinjal.Panchal@xduce.com</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -2587,7 +2599,7 @@
         <v>Vaidehi.Patel@xduce.com</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -2611,7 +2623,7 @@
         <v>Dhiraj.Thakur@xduce.com</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -2635,7 +2647,7 @@
         <v>Dharmendra.Solanki@xduce.com</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -2659,7 +2671,7 @@
         <v>Abhijeet.Kumar@xduce.com</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -2683,7 +2695,7 @@
         <v>Samir.Hans@XDuce.com</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -2707,7 +2719,7 @@
         <v>Devika.Shankaran@xduce.com</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -2731,7 +2743,7 @@
         <v>Sajid.Biyawarwala@xduce.com</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -2755,7 +2767,7 @@
         <v>Kali.R@xduce.com</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -2779,7 +2791,7 @@
         <v>Praveen.Singh@xduce.com</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -2803,7 +2815,7 @@
         <v>Julian.Ramond@xduce.com</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
@@ -2827,7 +2839,7 @@
         <v>Kaushal.Parekh@xduce.com</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -2851,7 +2863,7 @@
         <v>Sachidanand.Upadhyay@xduce.com</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
@@ -2875,7 +2887,7 @@
         <v>amit.patel@xduce.com</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>44</v>
       </c>
@@ -2898,7 +2910,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>46</v>
       </c>
@@ -2921,7 +2933,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
@@ -2945,7 +2957,7 @@
         <v>Shantanu.Gaur@sans.com</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -2969,7 +2981,7 @@
         <v>Nabeel.Nagori@xduce.com</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -2993,7 +3005,7 @@
         <v>jatin.ankleshwaria@xduce.com</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
@@ -3017,7 +3029,7 @@
         <v>Akansha.Bhaisora@xduce.com</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
@@ -3041,7 +3053,7 @@
         <v>Harshit.Mehra@xduce.com</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
@@ -3065,7 +3077,7 @@
         <v>Mohib.Saraiya@xduce.com</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
@@ -3089,7 +3101,7 @@
         <v>Henil.Kapadia@xduce.com</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
@@ -3113,7 +3125,7 @@
         <v>shailendra.jain@xduce.com</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>64</v>
       </c>
@@ -3137,7 +3149,7 @@
         <v>sumit.ghosh@xduce.com</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
@@ -3161,7 +3173,7 @@
         <v>palak.sukharamwala@xduce.com</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>68</v>
       </c>
@@ -3185,7 +3197,7 @@
         <v>Virang.Patel@xduce.com</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>70</v>
       </c>
@@ -3209,7 +3221,7 @@
         <v>Priyank.Varma@xduce.com</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>72</v>
       </c>
@@ -3233,7 +3245,7 @@
         <v>chhaya.bhimani@xduce.com</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>74</v>
       </c>
@@ -3257,7 +3269,7 @@
         <v>Naimesh.Rajyaguru@xduce.com</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>76</v>
       </c>
@@ -3280,7 +3292,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>78</v>
       </c>
@@ -3304,7 +3316,7 @@
         <v>Dheeraj.Panwar@xduce.com</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>80</v>
       </c>
@@ -3328,7 +3340,7 @@
         <v>Surendra.singh@sans.com</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>82</v>
       </c>
@@ -3352,7 +3364,7 @@
         <v>Ashna.Panikar@xduce.com</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>84</v>
       </c>
@@ -3376,7 +3388,7 @@
         <v>Jay.Patel@xduce.com</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>86</v>
       </c>
@@ -3400,7 +3412,7 @@
         <v>Vijay.Yadav@xduce.com</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>88</v>
       </c>
@@ -3424,7 +3436,7 @@
         <v>Shivraj.D@xduce.com</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>90</v>
       </c>
@@ -3448,7 +3460,7 @@
         <v>Abhimanyu.Yadav@xduce.com</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>92</v>
       </c>
@@ -3472,7 +3484,7 @@
         <v>Neha.Sain@xduce.com</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>94</v>
       </c>
@@ -3495,7 +3507,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>96</v>
       </c>
@@ -3519,7 +3531,7 @@
         <v>rahul.vashisth@sans.com</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>98</v>
       </c>
@@ -3543,7 +3555,7 @@
         <v>jay.mistry@xduce.com</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>100</v>
       </c>
@@ -3566,7 +3578,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>102</v>
       </c>
@@ -3589,7 +3601,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>104</v>
       </c>
@@ -3613,7 +3625,7 @@
         <v>Hardik.Mochi@xduce.com</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>106</v>
       </c>
@@ -3637,7 +3649,7 @@
         <v>harshad.makwana@xduce.com</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>108</v>
       </c>
@@ -3661,7 +3673,7 @@
         <v>anmol.parihar@xduce.com</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>110</v>
       </c>
@@ -3685,7 +3697,7 @@
         <v>vishal.vyas@xduce.com</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>112</v>
       </c>
@@ -3708,7 +3720,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>114</v>
       </c>
@@ -3732,7 +3744,7 @@
         <v>Simran.Datta@xduce.com</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>116</v>
       </c>
@@ -3756,7 +3768,7 @@
         <v>Hitesh.Rathod@XDuce.com</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>118</v>
       </c>
@@ -3780,7 +3792,7 @@
         <v>jenish.shah@xduce.com</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>120</v>
       </c>
@@ -3804,7 +3816,7 @@
         <v>lalit.kumar@xduce.com</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>122</v>
       </c>
@@ -3828,7 +3840,7 @@
         <v>Gaurav.V@XDuce.com</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>124</v>
       </c>
@@ -3851,7 +3863,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>126</v>
       </c>
@@ -3875,7 +3887,7 @@
         <v>Mohit.Sharma@XDuce.com</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>128</v>
       </c>
@@ -3898,7 +3910,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>130</v>
       </c>
@@ -3922,7 +3934,7 @@
         <v>arbaz.khan@xduce.com</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>132</v>
       </c>
@@ -3946,7 +3958,7 @@
         <v>shivani.jethaliya@xduce.com</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>134</v>
       </c>
@@ -3970,7 +3982,7 @@
         <v>riyona.parmar@xduce.com</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>136</v>
       </c>
@@ -3994,7 +4006,7 @@
         <v>gauri.jadhav@xduce.com</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>138</v>
       </c>
